--- a/biology/Botanique/Eriosema_spicatum/Eriosema_spicatum.xlsx
+++ b/biology/Botanique/Eriosema_spicatum/Eriosema_spicatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eriosema spicatum est une espèce de plantes de la famille des Fabaceae et du genre Eriosema, présente en Afrique tropicale, de la Guinée au Ghana, au Gabon en République du Congo, en République démocratique du Congo. Elle est utilisée comme plante médicinale[2] .
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eriosema spicatum est une espèce de plantes de la famille des Fabaceae et du genre Eriosema, présente en Afrique tropicale, de la Guinée au Ghana, au Gabon en République du Congo, en République démocratique du Congo. Elle est utilisée comme plante médicinale .
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (7 juin 2020)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (7 juin 2020) :
 sous-espèce Eriosema spicatum subsp. collinum
 sous-espèce Eriosema spicatum subsp. spicatum
-Selon The Plant List            (7 juin 2020)[1] :
+Selon The Plant List            (7 juin 2020) :
 sous-espèce Eriosema spicatum subsp. collinum (Hepper) J.K.Morton
-Selon Tropicos                                           (7 juin 2020)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (7 juin 2020) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Eriosema spicatum subsp. collinum (Hepper) J.K. Morton
 sous-espèce Eriosema spicatum subsp. spicatum</t>
         </is>
